--- a/Docs/initial/Lab01_ReviewReport.xlsx
+++ b/Docs/initial/Lab01_ReviewReport.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Facultate\Semestrul 6\VVSS\Raspy-Tasks\Docs\initial\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="156" windowWidth="14160" windowHeight="8268" tabRatio="650"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="14160" windowHeight="8265" tabRatio="650"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -12,12 +17,12 @@
     <sheet name="Coding Phase Defects" sheetId="5" r:id="rId3"/>
     <sheet name="DynamicCodeAnalysis" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="50">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -116,19 +121,77 @@
   </si>
   <si>
     <t>Effort to perform dynamic code analysis (hours):</t>
+  </si>
+  <si>
+    <t>R01</t>
+  </si>
+  <si>
+    <t>R02</t>
+  </si>
+  <si>
+    <t>R04</t>
+  </si>
+  <si>
+    <t>R06</t>
+  </si>
+  <si>
+    <t>R07</t>
+  </si>
+  <si>
+    <t>Nu este specificata starea initiala a aplicatiei, daca se incarca sau nu datele stocate la pornire.</t>
+  </si>
+  <si>
+    <t>Nu sunt definite tipurile de date folosite in descrierea unui task</t>
+  </si>
+  <si>
+    <t>Nevoile utilizatorului nu sunt specificate clar - nu stim de unde rezulta nevoia functionalitatilor propuse</t>
+  </si>
+  <si>
+    <t>Lipsesc informatii despre cum se vor declansa operatiile specificate (prin apasarea unor butoane, prin selectarea dintr-un meniu etc.)</t>
+  </si>
+  <si>
+    <t>Nu se precizeaza ce fel de interfata pentru utilizator va folosi aplicatia (consola sau GUI), care elemente grafice sunt folosite pentru gestionarea datelor - lista/tabel, edit fields, butoane etc.</t>
+  </si>
+  <si>
+    <t>Nu apar detalii despre persistenta datelor in fisier, daca fisierul este modificat la fiecare schimbare a taskurilor sau daca datele se reincarca in fisier la finalul programului.</t>
+  </si>
+  <si>
+    <t>Nu sunt abordate cazurile speciale de utilizare, precum modificarea sau stergea unui task activ.</t>
+  </si>
+  <si>
+    <t>Nu este precizat cum se vor</t>
+  </si>
+  <si>
+    <t>Lipseste definitia unei persoane active la nivel de program - persoana ar putea fi precizata in numele fiserului de stocare sau ar putea fi definita printr-o alta entitate.</t>
+  </si>
+  <si>
+    <t>Nu se precizeaza structura stocarii datelor in fisier (proprietati separate cu virgula, datele sub forma de string etc.).</t>
+  </si>
+  <si>
+    <t>Nu sunt precizate limbajul de programare si tehnologiile folosite in dezvoltarea aplicatiei (Java, JavaFX)</t>
+  </si>
+  <si>
+    <t>Detaliile unui task nu includ starea de activ sau inactiv - nu se precizeaza cum este stocata starea unui task</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -293,78 +356,82 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,6 +441,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -422,7 +492,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -457,7 +527,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -671,99 +741,99 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="F5" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="6"/>
-    <col min="2" max="2" width="12.3125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.3125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.41796875" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.89453125" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.85546875" style="6"/>
     <col min="9" max="9" width="21" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.41796875" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.89453125" style="6"/>
+    <col min="10" max="10" width="14.42578125" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="21" t="s">
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="20" t="s">
         <v>31</v>
       </c>
       <c r="J2" s="18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="22"/>
+      <c r="E4" s="24"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="25"/>
+      <c r="E5" s="26"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -776,25 +846,46 @@
       <c r="E9" s="15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="G9" s="36"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
       <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="F10" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
       <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="F11" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B25" si="0">B11+1</f>
         <v>3</v>
@@ -802,8 +893,14 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="F12" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -811,8 +908,14 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="F13" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -820,8 +923,14 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="F14" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -829,8 +938,14 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="F15" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -838,8 +953,14 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F16" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -847,8 +968,14 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F17" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -856,8 +983,14 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="16"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F18" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -865,8 +998,11 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="16"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G19" s="35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -874,8 +1010,11 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="16"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G20" s="35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -883,8 +1022,11 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="16"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G21" s="35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -893,7 +1035,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="16"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -902,7 +1044,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="16"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -911,7 +1053,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="16"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -920,10 +1062,10 @@
       <c r="D25" s="3"/>
       <c r="E25" s="16"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E26" s="11"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C27" s="12" t="s">
         <v>8</v>
       </c>
@@ -955,94 +1097,94 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="6"/>
-    <col min="2" max="2" width="12.3125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.3125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.41796875" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.89453125" style="6"/>
-    <col min="9" max="9" width="22.05078125" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.89453125" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.85546875" style="6"/>
+    <col min="9" max="9" width="22" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="21" t="s">
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="20" t="s">
         <v>31</v>
       </c>
       <c r="J2" s="18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="26"/>
+      <c r="E4" s="27"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="28"/>
+      <c r="E5" s="29"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1056,7 +1198,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -1064,7 +1206,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -1073,7 +1215,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
@@ -1082,7 +1224,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1091,7 +1233,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1100,7 +1242,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1109,7 +1251,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1118,7 +1260,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1127,7 +1269,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1136,7 +1278,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1145,7 +1287,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1154,7 +1296,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1163,7 +1305,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1172,7 +1314,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1181,7 +1323,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1190,7 +1332,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1199,7 +1341,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1208,10 +1350,10 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E27" s="11"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C28" s="12" t="s">
         <v>8</v>
       </c>
@@ -1243,95 +1385,95 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="6"/>
-    <col min="2" max="2" width="12.3125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.3125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.41796875" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.89453125" style="6"/>
-    <col min="9" max="9" width="26.734375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.89453125" style="6"/>
+    <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.85546875" style="6"/>
+    <col min="9" max="9" width="26.7109375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="21" t="s">
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="20" t="s">
         <v>31</v>
       </c>
       <c r="J2" s="18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="29"/>
+      <c r="E4" s="30"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="31"/>
+      <c r="E5" s="32"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1345,7 +1487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -1353,7 +1495,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -1362,7 +1504,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
@@ -1371,7 +1513,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1380,7 +1522,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1389,7 +1531,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1398,7 +1540,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1407,7 +1549,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1416,7 +1558,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1425,7 +1567,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1434,7 +1576,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1443,7 +1585,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1452,7 +1594,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1461,7 +1603,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1470,7 +1612,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1479,7 +1621,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1488,7 +1630,7 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1497,7 +1639,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1506,7 +1648,7 @@
       <c r="D27" s="2"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1515,7 +1657,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1524,7 +1666,7 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1533,10 +1675,10 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C32" s="12" t="s">
         <v>8</v>
       </c>
@@ -1564,89 +1706,89 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="6"/>
-    <col min="2" max="2" width="12.3125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.3125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="23.9453125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.62890625" style="6" customWidth="1"/>
-    <col min="7" max="8" width="8.89453125" style="6"/>
-    <col min="9" max="9" width="26.734375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.89453125" style="6"/>
+    <col min="5" max="5" width="24" style="6" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="6" customWidth="1"/>
+    <col min="7" max="8" width="8.85546875" style="6"/>
+    <col min="9" max="9" width="26.7109375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="21" t="s">
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="20" t="s">
         <v>31</v>
       </c>
       <c r="J2" s="18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1663,7 +1805,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -1672,7 +1814,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -1682,7 +1824,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
@@ -1692,7 +1834,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1702,7 +1844,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1712,7 +1854,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1722,7 +1864,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1732,7 +1874,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1742,7 +1884,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1752,7 +1894,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1762,7 +1904,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1772,7 +1914,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1782,7 +1924,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1792,7 +1934,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1802,7 +1944,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1812,7 +1954,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1822,7 +1964,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1832,7 +1974,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1842,7 +1984,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1852,7 +1994,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1862,7 +2004,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1872,15 +2014,15 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C32" s="32" t="s">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C32" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
       <c r="F32" s="19"/>
     </row>
   </sheetData>

--- a/Docs/initial/Lab01_ReviewReport.xlsx
+++ b/Docs/initial/Lab01_ReviewReport.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Facultate\Semestrul 6\VVSS\Raspy-Tasks\Docs\initial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Faculta\vvss\Raspy-Tasks\Docs\initial\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86236DE3-74E2-4FA4-B896-FA739C2DC000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="14160" windowHeight="8265" tabRatio="650"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -17,12 +18,20 @@
     <sheet name="Coding Phase Defects" sheetId="5" r:id="rId3"/>
     <sheet name="DynamicCodeAnalysis" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="65">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -172,19 +181,71 @@
   </si>
   <si>
     <t>Detaliile unui task nu includ starea de activ sau inactiv - nu se precizeaza cum este stocata starea unui task</t>
+  </si>
+  <si>
+    <t>Gaidur Ioan</t>
+  </si>
+  <si>
+    <t>Gaspar Patricia Lorena</t>
+  </si>
+  <si>
+    <t>Gheorghiu Dragos</t>
+  </si>
+  <si>
+    <t>Gheorghiu Dragos Constantin</t>
+  </si>
+  <si>
+    <t>18.03.2020</t>
+  </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>NewEditController</t>
+  </si>
+  <si>
+    <t>New and Edit windows should have separate controllers, that means separate files too</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>yes, it accounts for the requirements</t>
+  </si>
+  <si>
+    <t>There is no master exception handling</t>
+  </si>
+  <si>
+    <t>it is logically and correctly partitioned</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -356,82 +417,84 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,6 +588,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -560,6 +640,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -735,14 +832,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F5" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,8 +848,9 @@
     <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
     <col min="3" max="4" width="16.28515625" style="6" customWidth="1"/>
     <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.85546875" style="6"/>
-    <col min="9" max="9" width="21" style="6" customWidth="1"/>
+    <col min="6" max="7" width="8.85546875" style="6"/>
+    <col min="8" max="8" width="12.140625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="34.140625" style="6" customWidth="1"/>
     <col min="10" max="10" width="14.42578125" style="6" customWidth="1"/>
     <col min="11" max="16384" width="8.85546875" style="6"/>
   </cols>
@@ -762,19 +860,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>31</v>
@@ -784,54 +882,66 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
+      <c r="I3" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="18">
+        <v>233</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="26"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="I4" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="3">
+        <v>233</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="26"/>
+      <c r="E5" s="28"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="I5" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="3">
+        <v>233</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -846,7 +956,7 @@
       <c r="E9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="36"/>
+      <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
@@ -859,10 +969,10 @@
         <v>1</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="35" t="s">
+      <c r="F10" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="35" t="s">
+      <c r="G10" s="21" t="s">
         <v>47</v>
       </c>
     </row>
@@ -878,10 +988,10 @@
         <v>1</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="35" t="s">
+      <c r="F11" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="21" t="s">
         <v>49</v>
       </c>
     </row>
@@ -893,10 +1003,10 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="35" t="s">
+      <c r="F12" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="35" t="s">
+      <c r="G12" s="21" t="s">
         <v>39</v>
       </c>
     </row>
@@ -908,10 +1018,10 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="35" t="s">
+      <c r="F13" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="35" t="s">
+      <c r="G13" s="21" t="s">
         <v>46</v>
       </c>
     </row>
@@ -923,10 +1033,10 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="35" t="s">
+      <c r="F14" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="35" t="s">
+      <c r="G14" s="21" t="s">
         <v>40</v>
       </c>
     </row>
@@ -938,7 +1048,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="21" t="s">
         <v>35</v>
       </c>
       <c r="G15" s="6" t="s">
@@ -953,10 +1063,10 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="G16" s="21" t="s">
         <v>48</v>
       </c>
     </row>
@@ -968,10 +1078,10 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="35" t="s">
+      <c r="F17" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="35" t="s">
+      <c r="G17" s="21" t="s">
         <v>41</v>
       </c>
     </row>
@@ -983,10 +1093,10 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="16"/>
-      <c r="F18" s="35" t="s">
+      <c r="F18" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="35" t="s">
+      <c r="G18" s="21" t="s">
         <v>42</v>
       </c>
     </row>
@@ -998,7 +1108,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="16"/>
-      <c r="G19" s="35" t="s">
+      <c r="G19" s="21" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1010,7 +1120,7 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="16"/>
-      <c r="G20" s="35" t="s">
+      <c r="G20" s="21" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1022,7 +1132,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="16"/>
-      <c r="G21" s="35" t="s">
+      <c r="G21" s="21" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1087,24 +1197,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="6"/>
     <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="6" customWidth="1"/>
     <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.85546875" style="6"/>
-    <col min="9" max="9" width="22" style="6" customWidth="1"/>
+    <col min="6" max="7" width="8.85546875" style="6"/>
+    <col min="8" max="8" width="10.28515625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="29.85546875" style="6" customWidth="1"/>
     <col min="10" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
@@ -1113,19 +1225,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>31</v>
@@ -1135,54 +1247,70 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
+      <c r="I3" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="18">
+        <v>233</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="27"/>
+      <c r="E4" s="29"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="I4" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="3">
+        <v>233</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="29"/>
+      <c r="E5" s="31"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="I5" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="3">
+        <v>233</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="D7" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1198,40 +1326,64 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="C10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="C11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
+      <c r="C13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
@@ -1358,7 +1510,9 @@
         <v>8</v>
       </c>
       <c r="D28" s="13"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1375,14 +1529,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1392,7 +1546,8 @@
     <col min="3" max="3" width="16.28515625" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
     <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.85546875" style="6"/>
+    <col min="6" max="7" width="8.85546875" style="6"/>
+    <col min="8" max="8" width="12.140625" style="6" customWidth="1"/>
     <col min="9" max="9" width="26.7109375" style="6" customWidth="1"/>
     <col min="10" max="16384" width="8.85546875" style="6"/>
   </cols>
@@ -1402,19 +1557,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>31</v>
@@ -1427,51 +1582,63 @@
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
+      <c r="I3" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="18">
+        <v>233</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="30"/>
+      <c r="E4" s="32"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="I4" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="3">
+        <v>233</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="32"/>
+      <c r="E5" s="34"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="I5" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="3">
+        <v>233</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1491,9 +1658,6 @@
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
@@ -1700,7 +1864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
@@ -1728,19 +1892,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>31</v>
@@ -1760,8 +1924,8 @@
       <c r="C4" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
@@ -1772,8 +1936,8 @@
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
@@ -1785,8 +1949,8 @@
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -2018,11 +2182,11 @@
       <c r="E31" s="11"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
       <c r="F32" s="19"/>
     </row>
   </sheetData>
